--- a/homework/#2/serviettes.xlsx
+++ b/homework/#2/serviettes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FEUP-O\homework\#2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A06F1C-913C-4B6E-896E-2BAF4286944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531051ED-AC4E-486F-8518-FD6DD741A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="2100" windowWidth="28800" windowHeight="15345" xr2:uid="{44B6B73C-CCB9-45E2-906E-1924ACFFF47A}"/>
+    <workbookView xWindow="8535" yWindow="3960" windowWidth="28800" windowHeight="15345" xr2:uid="{44B6B73C-CCB9-45E2-906E-1924ACFFF47A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Guardadas</t>
   </si>
   <si>
-    <t>Limpas para o almoço</t>
-  </si>
-  <si>
     <t>Restriçoes fim do almoço</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>enviadas 48H</t>
+  </si>
+  <si>
+    <t>Serviettes para o almoço</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="C6:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
@@ -496,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
